--- a/Finflux Automation Excels/Client/2622-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
+++ b/Finflux Automation Excels/Client/2622-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%INT-MORE-AMT-LATE-Makerepayment1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
@@ -11,13 +16,14 @@
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Repayment schedule" sheetId="1" r:id="rId3"/>
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
+    <sheet name="Modify Transaction1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -113,13 +119,28 @@
   </si>
   <si>
     <t>TransactionType</t>
+  </si>
+  <si>
+    <t>OverDueTillDate</t>
+  </si>
+  <si>
+    <t>clickonsubmit</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>navigate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +168,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -181,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -205,6 +238,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +337,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,17 +629,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -594,22 +666,22 @@
         <v>5000</v>
       </c>
       <c r="B2" s="6">
-        <v>1403.02</v>
+        <v>1402.28</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>3596.98</v>
+        <v>3597.72</v>
       </c>
       <c r="F2" s="3">
-        <v>275.44</v>
+        <v>276.18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>181.65</v>
+        <v>181.66</v>
       </c>
       <c r="B3" s="3">
         <v>96.98</v>
@@ -621,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>84.67</v>
+        <v>84.68</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -649,10 +721,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -677,7 +749,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +766,9 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="K4" s="3">
-        <v>887.72</v>
+        <v>888.46</v>
       </c>
       <c r="L4" s="3">
         <v>612.28</v>
@@ -865,7 +936,7 @@
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3">
-        <v>275.44</v>
+        <v>276.18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -881,13 +952,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>851.06</v>
+        <v>851.05</v>
       </c>
       <c r="G5" s="6">
-        <v>2470.48</v>
+        <v>2470.4899999999998</v>
       </c>
       <c r="H5" s="3">
-        <v>36.659999999999997</v>
+        <v>36.67</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -929,7 +1000,7 @@
         <v>863.35</v>
       </c>
       <c r="G6" s="6">
-        <v>1607.13</v>
+        <v>1607.14</v>
       </c>
       <c r="H6" s="3">
         <v>24.37</v>
@@ -974,7 +1045,7 @@
         <v>871.34</v>
       </c>
       <c r="G7" s="3">
-        <v>735.79</v>
+        <v>735.8</v>
       </c>
       <c r="H7" s="3">
         <v>16.38</v>
@@ -1016,7 +1087,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>735.79</v>
+        <v>735.8</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1031,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>743.05</v>
+        <v>743.06</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1045,7 +1116,7 @@
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3">
-        <v>743.05</v>
+        <v>743.06</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1130,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1184,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>544</v>
+        <v>442</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -1128,7 +1199,7 @@
         <v>1500</v>
       </c>
       <c r="F2" s="6">
-        <v>1403.02</v>
+        <v>1402.28</v>
       </c>
       <c r="G2" s="3">
         <v>96.98</v>
@@ -1137,17 +1208,17 @@
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J2" s="6">
-        <v>3596.98</v>
+        <v>3597.72</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>543</v>
+        <v>441</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1178,6 +1249,50 @@
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
